--- a/data/trans_dic/P16B11-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B11-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,82%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>96,0; 99,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>98,81; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>99,2; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>97,33; 99,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>98,72; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>98,55; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>97,48; 99,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>99,1; 99,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>98,92; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,77%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>91,29; 99,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>98,86; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>99,08; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>90,54; 98,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>96,36; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>97,04; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>92,6; 98,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>98,5; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>98,83; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>88,84; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>95,1; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>96,02; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>79,89; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>89,78; 98,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>96,91; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>97,26; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,81%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>95,81; 98,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>99,2; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>99,61; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>96,77; 98,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>98,9; 99,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>98,96; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>96,8; 98,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>99,23; 99,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>99,43; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B11-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,0; 99,36</t>
+          <t>95,75; 99,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>98,81; 100,0</t>
+          <t>98,54; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>97,33; 99,55</t>
+          <t>97,41; 99,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,72; 100,0</t>
+          <t>98,88; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,55; 100,0</t>
+          <t>98,54; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,48; 99,3</t>
+          <t>97,58; 99,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>99,1; 99,89</t>
+          <t>99,1; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>98,92; 100,0</t>
+          <t>98,98; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,29; 99,04</t>
+          <t>91,45; 99,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -810,32 +811,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>90,54; 98,95</t>
+          <t>90,25; 98,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,36; 100,0</t>
+          <t>96,32; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>97,04; 100,0</t>
+          <t>97,6; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,6; 98,44</t>
+          <t>92,91; 98,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>98,5; 100,0</t>
+          <t>98,14; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98,83; 100,0</t>
+          <t>98,63; 100,0</t>
         </is>
       </c>
     </row>
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,84; 100,0</t>
+          <t>89,03; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -920,7 +921,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,89; 100,0</t>
+          <t>79,29; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +936,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,78; 98,86</t>
+          <t>89,86; 98,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1015,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,81; 98,85</t>
+          <t>95,96; 98,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>99,2; 100,0</t>
+          <t>98,96; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,7 +1031,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,77; 98,99</t>
+          <t>96,67; 98,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,12 +1041,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,96; 100,0</t>
+          <t>98,76; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,8; 98,64</t>
+          <t>96,89; 98,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>99,43; 100,0</t>
+          <t>99,36; 100,0</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la tensión arterial  fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>256571</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>337394</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>226060</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>433921</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>561480</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>376092</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>690492</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>898874</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>602152</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>250081; 259415</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>333418; 338371</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>224252; 226060</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>427848; 437273</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>557214; 563510</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>371661; 377181</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>683412; 695596</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>893805; 901881</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>597102; 603241</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>104393</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>183774</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>218908</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>90321</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>144069</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>206390</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>194714</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>327843</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>425298</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>99073; 107363</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>181676; 183774</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>216889; 218908</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>84932; 93151</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>139735; 145071</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>202379; 207363</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>188093; 198677</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>322736; 328845</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>420430; 426271</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>42370</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>44007</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51307</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26190</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29705</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29926</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>68560</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>73713</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>81233</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>38464; 43204</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>41852; 44007</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49263; 51307</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22230; 28035</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27350; 29705</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27451; 29926</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>64014; 70409</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>71437; 73713</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>79011; 81233</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1197</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>403333</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>565176</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>496276</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>550433</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>735255</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>612408</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>953765</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1300429</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1108683</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>396056; 408064</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>560287; 566153</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>494347; 496276</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>542661; 555510</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>730171; 737300</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>606840; 614470</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>943786; 961040</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1294381; 1303437</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1103659; 1110745</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>